--- a/biology/Zoologie/Accipitridae/Accipitridae.xlsx
+++ b/biology/Zoologie/Accipitridae/Accipitridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Accipitridés (Accipitridae) sont une famille d'oiseaux qui rassemble la majorité des rapaces diurnes : bazas, milans, bondrées, élanions, pygargues, palmistes, gypaètes, vautours de l'Ancien Monde, circaètes, bateleurs, serpentaires, busards, gymnogènes, buses, autours, éperviers, busautours, harpies et aigles. Les faucons ne sont pas des accipitridés, mais des falconidés.
 Ce sont des oiseaux de proie de taille petite à grande (de 20 à 150 cm), dont le bec crochu est garni, à la base, d'une cire charnue. Leurs pattes puissantes sont munies de serres acérées, et leurs ailes sont souvent larges. Ils jouissent d'une vue perçante.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille tire son nom du substantif latin accipiter, « épervier, faucon ; oiseau de proie », lui-même rapproché par étymologie populaire du verbe accipere « saisir, prendre », par référence aux serres de l'oiseau ; ce rapprochement en a partiellement influencé la forme. Le mot semble en fait reposer sur un composé indo-européen *əku-pter-, « au vol rapide », auquel se rattachent, avec un vocalisme différent, le grec ōkú-pteros et le sanskrit āçu-patvan- « qui vole rapidement »[2]. Pierre Belon utilise le mot accipiter pour décrire l'épervier[3], mais c'est en français le mot autour qui provient du latin accipiter, par l'intermédiaire d'une forme tardive auceptor &lt; acceptor, elle-même une altération d’accipiter influencée par auceps, « oiseleur »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille tire son nom du substantif latin accipiter, « épervier, faucon ; oiseau de proie », lui-même rapproché par étymologie populaire du verbe accipere « saisir, prendre », par référence aux serres de l'oiseau ; ce rapprochement en a partiellement influencé la forme. Le mot semble en fait reposer sur un composé indo-européen *əku-pter-, « au vol rapide », auquel se rattachent, avec un vocalisme différent, le grec ōkú-pteros et le sanskrit āçu-patvan- « qui vole rapidement ». Pierre Belon utilise le mot accipiter pour décrire l'épervier, mais c'est en français le mot autour qui provient du latin accipiter, par l'intermédiaire d'une forme tardive auceptor &lt; acceptor, elle-même une altération d’accipiter influencée par auceps, « oiseleur ».
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Systématique
-Les relations phylogénétiques de cette famille restent discutées. L'étude phylogénétique des Accipitridae de Raposo do Amaral et al. (2009) portant sur l'analyse génétique de neuf gènes, mitochondriaux et nucléaires, de 105 spécimens (54 espèces) marquent un tournant dans la compréhension des relations de parentés dans ce groupe[4],[5]. Cela entraîne un bouleversement dans la taxinomie du groupe, qui est répercutée dans la version 3.3 (2013) de la classification de référence du Congrès ornithologique international.
-Liste des genres
-Vous trouverez ci-dessous la taxonomie après la phylogénie des études de Mindell et al. (2018)[6] et Starikov &amp; Wink (2020)[7].
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les relations phylogénétiques de cette famille restent discutées. L'étude phylogénétique des Accipitridae de Raposo do Amaral et al. (2009) portant sur l'analyse génétique de neuf gènes, mitochondriaux et nucléaires, de 105 spécimens (54 espèces) marquent un tournant dans la compréhension des relations de parentés dans ce groupe,. Cela entraîne un bouleversement dans la taxinomie du groupe, qui est répercutée dans la version 3.3 (2013) de la classification de référence du Congrès ornithologique international.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accipitridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accipitridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique, taxinomie et évolution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vous trouverez ci-dessous la taxonomie après la phylogénie des études de Mindell et al. (2018) et Starikov &amp; Wink (2020).
 Sous-famille Elaninae
 Gampsonyx (1 espèce)
 Chelictinia (1 espèce)
@@ -636,39 +690,76 @@
 Leucopternis (3 espèces)
 †Bermuteo
 Buteo (29 espèces)
-Liste des espèces existantes
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Accipitridae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Accipitridae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique, taxinomie et évolution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces existantes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accipitridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accipitridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Accipitridae ont des caryotypes qui présentent peu de microchromosomes, et de nombreux macrochromosomes de taille moyenne, contrairement aux caryotypes classiques des oiseaux, qui comportent habituellement quelques grands macrochromosomes et de nombreux microchromosomes[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Accipitridae ont des caryotypes qui présentent peu de microchromosomes, et de nombreux macrochromosomes de taille moyenne, contrairement aux caryotypes classiques des oiseaux, qui comportent habituellement quelques grands macrochromosomes et de nombreux microchromosomes.
 </t>
         </is>
       </c>
